--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2262.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2262.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.152143374141915</v>
+        <v>1.09968638420105</v>
       </c>
       <c r="B1">
-        <v>2.234914439830919</v>
+        <v>2.798731565475464</v>
       </c>
       <c r="C1">
-        <v>6.165376335819352</v>
+        <v>5.108551025390625</v>
       </c>
       <c r="D1">
-        <v>2.657269305969772</v>
+        <v>2.095155954360962</v>
       </c>
       <c r="E1">
-        <v>1.222994907087816</v>
+        <v>1.169235706329346</v>
       </c>
     </row>
   </sheetData>
